--- a/LIVRABILE/_TIMESHEET.xlsx
+++ b/LIVRABILE/_TIMESHEET.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17927"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18067"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Livrabil</t>
   </si>
@@ -49,6 +49,12 @@
   </si>
   <si>
     <t>Programare cod sursa</t>
+  </si>
+  <si>
+    <t>Configurare mediu cloud</t>
+  </si>
+  <si>
+    <t>Programare mediu cloud</t>
   </si>
 </sst>
 </file>
@@ -376,10 +382,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G5"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="G1" sqref="E1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -390,9 +396,23 @@
     <col min="4" max="4" width="11.3984375" style="1" customWidth="1"/>
     <col min="5" max="5" width="11.53125" style="1" customWidth="1"/>
     <col min="6" max="6" width="11.59765625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.06640625" style="1"/>
+    <col min="7" max="7" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="E1" s="1">
+        <f t="shared" ref="E1:F1" si="0">SUM(E3:E7)</f>
+        <v>103000</v>
+      </c>
+      <c r="F1" s="1">
+        <f t="shared" si="0"/>
+        <v>19570</v>
+      </c>
+      <c r="G1" s="1">
+        <f>SUM(G3:G7)</f>
+        <v>122570</v>
+      </c>
+    </row>
     <row r="2" spans="1:7" ht="31.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>2</v>
@@ -424,22 +444,22 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D3" s="1">
         <v>1030</v>
       </c>
       <c r="E3" s="1">
         <f>C3*D3</f>
-        <v>7210</v>
+        <v>20600</v>
       </c>
       <c r="F3" s="1">
         <f>E3*0.19</f>
-        <v>1369.9</v>
+        <v>3914</v>
       </c>
       <c r="G3" s="1">
         <f>E3*1.19</f>
-        <v>8579.9</v>
+        <v>24514</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
@@ -450,22 +470,22 @@
         <v>8</v>
       </c>
       <c r="C4">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D4" s="1">
         <v>1030</v>
       </c>
       <c r="E4" s="1">
-        <f t="shared" ref="E4:E5" si="0">C4*D4</f>
-        <v>10300</v>
+        <f t="shared" ref="E4:E5" si="1">C4*D4</f>
+        <v>25750</v>
       </c>
       <c r="F4" s="1">
-        <f t="shared" ref="F4:F5" si="1">E4*0.19</f>
-        <v>1957</v>
+        <f t="shared" ref="F4:F5" si="2">E4*0.19</f>
+        <v>4892.5</v>
       </c>
       <c r="G4" s="1">
-        <f t="shared" ref="G4:G5" si="2">E4*1.19</f>
-        <v>12257</v>
+        <f t="shared" ref="G4:G5" si="3">E4*1.19</f>
+        <v>30642.5</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
@@ -476,22 +496,74 @@
         <v>9</v>
       </c>
       <c r="C5">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D5" s="1">
         <v>1030</v>
       </c>
       <c r="E5" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
+        <v>25750</v>
+      </c>
+      <c r="F5" s="1">
+        <f t="shared" si="2"/>
+        <v>4892.5</v>
+      </c>
+      <c r="G5" s="1">
+        <f t="shared" si="3"/>
+        <v>30642.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>10</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1030</v>
+      </c>
+      <c r="E6" s="1">
+        <f t="shared" ref="E6:E7" si="4">C6*D6</f>
         <v>10300</v>
       </c>
-      <c r="F5" s="1">
-        <f t="shared" si="1"/>
+      <c r="F6" s="1">
+        <f t="shared" ref="F6:F7" si="5">E6*0.19</f>
         <v>1957</v>
       </c>
-      <c r="G5" s="1">
-        <f t="shared" si="2"/>
+      <c r="G6" s="1">
+        <f t="shared" ref="G6:G7" si="6">E6*1.19</f>
         <v>12257</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A7" s="2">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7">
+        <v>20</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1030</v>
+      </c>
+      <c r="E7" s="1">
+        <f t="shared" si="4"/>
+        <v>20600</v>
+      </c>
+      <c r="F7" s="1">
+        <f t="shared" si="5"/>
+        <v>3914</v>
+      </c>
+      <c r="G7" s="1">
+        <f t="shared" si="6"/>
+        <v>24514</v>
       </c>
     </row>
   </sheetData>
